--- a/pred_ohlcv/54_21/2020-01-25 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 DAD ohlcv.xlsx
@@ -912,7 +912,7 @@
         <v>-131038.615280952</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-136221.700180952</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-136221.700180952</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-142221.700180952</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-144075.526780952</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-144075.526780952</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-144289.794780952</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-144044.000580952</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-144016.682480952</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-144079.508580952</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-147579.508580952</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-147413.364380952</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-148209.118180952</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-154741.678280952</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-150223.128980952</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-147870.742980952</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-148601.158280952</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-149701.268280952</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-149701.268280952</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-150317.803880952</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-157919.742980952</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-158507.244080952</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-182356.235080952</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-184529.430680952</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-162782.543880952</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-162778.543880952</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-162778.543880952</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-181558.716780952</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 DAD ohlcv.xlsx
@@ -912,7 +912,7 @@
         <v>-131038.615280952</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-136221.700180952</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-136221.700180952</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-142221.700180952</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-144075.526780952</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-144075.526780952</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-144289.794780952</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-144044.000580952</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-144016.682480952</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-144079.508580952</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-147579.508580952</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-147413.364380952</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-148209.118180952</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-154741.678280952</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-148601.158280952</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-149701.268280952</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-149701.268280952</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-157919.742980952</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-158507.244080952</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-182356.235080952</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-184529.430680952</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-184529.430680952</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-162782.543880952</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-162778.543880952</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-181592.716780952</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-181588.716780952</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-181593.716780952</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-181558.716780952</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-180880.477980952</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-177891.762380952</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
